--- a/Project/Test/Test Case.xlsx
+++ b/Project/Test/Test Case.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>功能点ID</t>
   </si>
@@ -115,6 +115,11 @@
   </si>
   <si>
     <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1&gt;功能上只能正确选择起点不能选择终点。&lt;2&gt;当拖动主窗口以后所有的站点都不能点了。&lt;3&gt; 11号线桃浦新村的桃打成姚了；10号线 新江湾城，交通大学，7号线 岚皋路，3号线 石龙路不能点。&lt;4&gt;如果将弹出的进站出站对话框关闭，之后再点击两次站点或者拖动一次面板并点击一次站点都会点会导致程序崩溃。调试信息如下：无法访问已释放的对象。
+对象名:“Rail_Dialog”。位置： 《Program.cs》Application.Run(new MainPage());</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,9 +646,36 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>41061</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
